--- a/russia/web/public/File/testing.xlsx
+++ b/russia/web/public/File/testing.xlsx
@@ -16,24 +16,213 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>TESTFINAL</t>
-  </si>
-  <si>
-    <t>FinalTest</t>
-  </si>
-  <si>
-    <t>ye</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+  <si>
+    <t>Christan</t>
+  </si>
+  <si>
+    <t>Stuani</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Suarez</t>
+  </si>
+  <si>
+    <t>Edinson</t>
+  </si>
+  <si>
+    <t>Cavani</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Rolan</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Avenatti</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Maxi</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t>Falletti</t>
+  </si>
+  <si>
+    <t>LWG</t>
+  </si>
+  <si>
+    <t>Gaston</t>
+  </si>
+  <si>
+    <t>prereiro</t>
+  </si>
+  <si>
+    <t>WG</t>
+  </si>
+  <si>
+    <t>Ramirz</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Laxalt</t>
+  </si>
+  <si>
+    <t>LSM</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Matias</t>
+  </si>
+  <si>
+    <t>Vecino</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Mauro</t>
+  </si>
+  <si>
+    <t>Arambarri</t>
+  </si>
+  <si>
+    <t>Ramiro</t>
+  </si>
+  <si>
+    <t>Guerra</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>bentancur</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Britos</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>Jose Maria</t>
+  </si>
+  <si>
+    <t>Gimenez</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Muslera</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>Lev</t>
+  </si>
+  <si>
+    <t>yashin</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Akinfeev</t>
+  </si>
+  <si>
+    <t>Màrio</t>
+  </si>
+  <si>
+    <t>Fernandes</t>
+  </si>
+  <si>
+    <t>Alexandr</t>
+  </si>
+  <si>
+    <t>Kokorin</t>
+  </si>
+  <si>
+    <t>ACK</t>
+  </si>
+  <si>
+    <t>Fedor</t>
+  </si>
+  <si>
+    <t>Smolov</t>
+  </si>
+  <si>
+    <t>Golovin</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Glushakov</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Dzagoev</t>
+  </si>
+  <si>
+    <t>Samedov</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>Yuriy</t>
+  </si>
+  <si>
+    <t>Zhirkov</t>
+  </si>
+  <si>
+    <t>Kudryashov</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Neustädter</t>
+  </si>
+  <si>
+    <t>Georgiy</t>
+  </si>
+  <si>
+    <t>Dzhikiya</t>
   </si>
 </sst>
 </file>
@@ -372,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,16 +585,422 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
